--- a/www/ig/fhir/annuaire/1.1.0-snapshot/ValueSet-as-vs-organization-types.xlsx
+++ b/www/ig/fhir/annuaire/1.1.0-snapshot/ValueSet-as-vs-organization-types.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from TRE_R74-ModeFixa" r:id="rId4" sheetId="2"/>
+    <sheet name="Include from AS CodeSystem Or" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0-snapshot</t>
+    <t>1.1.0-snapshot-2</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-10T13:17:34+00:00</t>
+    <t>2024-07-11T15:51:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -108,7 +108,7 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/TRE_R74-ModeFixationTarifaire/FHIR/TRE-R74-ModeFixationTarifaire</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/annuaire/CodeSystem/as-cs-organization-types</t>
   </si>
 </sst>
 </file>

--- a/www/ig/fhir/annuaire/1.1.0-snapshot/ValueSet-as-vs-organization-types.xlsx
+++ b/www/ig/fhir/annuaire/1.1.0-snapshot/ValueSet-as-vs-organization-types.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from AS CodeSystem Or" r:id="rId4" sheetId="2"/>
+    <sheet name="Include from TRE_R74-ModeFixa" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0-snapshot-2</t>
+    <t>1.1.0-snapshot</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-11T15:51:10+00:00</t>
+    <t>2024-07-10T13:17:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -108,7 +108,7 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/annuaire/CodeSystem/as-cs-organization-types</t>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_R74-ModeFixationTarifaire/FHIR/TRE-R74-ModeFixationTarifaire</t>
   </si>
 </sst>
 </file>
